--- a/PYG_local_bonds.xlsx
+++ b/PYG_local_bonds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebaruiz/Desktop/Andrea/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aszaran/Downloads/Yield curve models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DEFC67-45D9-D040-93DF-BA4230369538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58944-5947-4D42-9CEB-3694CFD6B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vencimientos" sheetId="2" r:id="rId1"/>
@@ -737,9 +737,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -759,71 +759,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>7.5865</v>
+        <v>7.5815000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
-        <v>7.5875000000000004</v>
+        <v>7.5865</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>7.35</v>
+        <v>7.5875000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>7.593</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>7.5950000000000006</v>
+        <v>7.593</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>7.7595000000000001</v>
+        <v>7.5950000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
-        <v>7.7610000000000001</v>
+        <v>7.7595000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>7.6</v>
+        <v>7.7610000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>7.6</v>
@@ -831,175 +831,175 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>7.6955</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>7.6965000000000003</v>
+        <v>7.6955</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>7.7</v>
+        <v>7.6965000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>7.6980000000000004</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
-        <v>7.6989999999999998</v>
+        <v>7.6980000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
-        <v>7.7</v>
+        <v>7.6989999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>7.7385000000000002</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>7.742</v>
+        <v>7.7385000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
-        <v>7.7424999999999997</v>
+        <v>7.742</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
-        <v>7.7430000000000003</v>
+        <v>7.7424999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
-        <v>7.7434999999999992</v>
+        <v>7.7430000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>7.7445000000000004</v>
+        <v>7.7434999999999992</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
-        <v>7.7450000000000001</v>
+        <v>7.7445000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>7.7480000000000002</v>
+        <v>7.7450000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
-        <v>7.7484999999999999</v>
+        <v>7.7480000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>7.8780000000000001</v>
+        <v>7.7484999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>7.8804999999999996</v>
+        <v>7.8780000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
-        <v>7.8810000000000002</v>
+        <v>7.8804999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
-        <v>7.8815</v>
+        <v>7.8810000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>8.0849999999999991</v>
+        <v>7.8815</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
-        <v>8.0854999999999997</v>
+        <v>8.0849999999999991</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
         <v>8.0854999999999997</v>
@@ -1007,31 +1007,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>8.0865000000000009</v>
+        <v>8.0854999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
-        <v>8.0875000000000004</v>
+        <v>8.0865000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>8.09</v>
+        <v>8.0875000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>8.09</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>8.09</v>
@@ -1047,63 +1047,63 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
-        <v>8.0919999999999987</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>7.9459999999999997</v>
+        <v>8.0919999999999987</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>7.9485000000000001</v>
+        <v>7.9459999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>7.95</v>
+        <v>7.9485000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>8.1920000000000002</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
-        <v>8.192499999999999</v>
+        <v>8.1920000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
-        <v>8.1935000000000002</v>
+        <v>8.192499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>8.1935000000000002</v>
@@ -1111,23 +1111,23 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
-        <v>8.1939999999999991</v>
+        <v>8.1935000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
-        <v>8.1944999999999997</v>
+        <v>8.1939999999999991</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>8.1944999999999997</v>
@@ -1135,31 +1135,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>8.1965000000000003</v>
+        <v>8.1944999999999997</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>8.1974999999999998</v>
+        <v>8.1965000000000003</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
-        <v>8.1980000000000004</v>
+        <v>8.1974999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
         <v>8.1980000000000004</v>
@@ -1167,31 +1167,31 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
-        <v>8.1989999999999998</v>
+        <v>8.1980000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.1989999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>8.2940000000000005</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>8.2940000000000005</v>
@@ -1199,39 +1199,39 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
-        <v>8.2949999999999999</v>
+        <v>8.2940000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>8.2959999999999994</v>
+        <v>8.2949999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
-        <v>8.2974999999999994</v>
+        <v>8.2959999999999994</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
-        <v>8.298</v>
+        <v>8.2974999999999994</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
         <v>8.298</v>
@@ -1239,23 +1239,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
-        <v>8.2985000000000007</v>
+        <v>8.298</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
-        <v>8.2994999999999983</v>
+        <v>8.2985000000000007</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>8.2994999999999983</v>
@@ -1263,23 +1263,23 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>8.3934999999999995</v>
+        <v>8.2994999999999983</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
-        <v>8.3940000000000001</v>
+        <v>8.3934999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>8.3940000000000001</v>
@@ -1287,103 +1287,103 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>8.3960000000000008</v>
+        <v>8.3940000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
-        <v>8.3970000000000002</v>
+        <v>8.3960000000000008</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
-        <v>8.3975000000000009</v>
+        <v>8.3970000000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
-        <v>8.3979999999999997</v>
+        <v>8.3975000000000009</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>8.3984999999999985</v>
+        <v>8.3979999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
-        <v>8.3990000000000009</v>
+        <v>8.3984999999999985</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>8.4</v>
+        <v>8.3990000000000009</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>8.400500000000001</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>8.6210000000000004</v>
+        <v>8.400500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>8.6215000000000011</v>
+        <v>8.6210000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>8.6219999999999999</v>
+        <v>8.6215000000000011</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>8.6225000000000005</v>
+        <v>8.6219999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
         <v>8.6225000000000005</v>
@@ -1391,31 +1391,31 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>8.5075000000000003</v>
+        <v>8.6225000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45098</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>8.4979999999999993</v>
+        <v>8.5075000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="B83" s="2">
-        <v>8.6245000000000012</v>
+        <v>8.4979999999999993</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B84" s="2">
         <v>8.6245000000000012</v>
@@ -1423,31 +1423,31 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B85" s="2">
-        <v>8.625</v>
+        <v>8.6245000000000012</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B86" s="2">
-        <v>8.7480000000000011</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B87" s="2">
-        <v>8.7484999999999999</v>
+        <v>8.7480000000000011</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B88" s="2">
         <v>8.7484999999999999</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B89" s="2">
         <v>8.7484999999999999</v>
@@ -1463,31 +1463,31 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B90" s="2">
-        <v>8.7489999999999988</v>
+        <v>8.7484999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B91" s="2">
-        <v>8.7494999999999994</v>
+        <v>8.7489999999999988</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B92" s="2">
-        <v>8.75</v>
+        <v>8.7494999999999994</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B93" s="2">
         <v>8.75</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B94" s="2">
         <v>8.75</v>
@@ -1503,15 +1503,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B95" s="2">
-        <v>9.0265000000000004</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B96" s="2">
         <v>9.0265000000000004</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B97" s="2">
         <v>9.0265000000000004</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B98" s="2">
         <v>9.0265000000000004</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B99" s="2">
         <v>9.0265000000000004</v>
@@ -1543,15 +1543,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B100" s="2">
-        <v>9.027000000000001</v>
+        <v>9.0265000000000004</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B101" s="2">
         <v>9.027000000000001</v>
@@ -1559,15 +1559,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B102" s="2">
-        <v>9.0274999999999999</v>
+        <v>9.027000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B103" s="2">
         <v>9.0274999999999999</v>
@@ -1575,15 +1575,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B104" s="2">
-        <v>9.0280000000000005</v>
+        <v>9.0274999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B105" s="2">
         <v>9.0280000000000005</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B106" s="2">
         <v>9.0280000000000005</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B107" s="2">
         <v>9.0280000000000005</v>
@@ -1607,15 +1607,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B108" s="2">
-        <v>9.0285000000000011</v>
+        <v>9.0280000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B109" s="2">
         <v>9.0285000000000011</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B110" s="2">
         <v>9.0285000000000011</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B111" s="2">
         <v>9.0285000000000011</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B112" s="2">
         <v>9.0285000000000011</v>
@@ -1647,15 +1647,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B113" s="2">
-        <v>9.0289999999999999</v>
+        <v>9.0285000000000011</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B114" s="2">
         <v>9.0289999999999999</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B115" s="2">
         <v>9.0289999999999999</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B116" s="2">
         <v>9.0289999999999999</v>
@@ -1679,15 +1679,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B117" s="2">
-        <v>9.0295000000000005</v>
+        <v>9.0289999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B118" s="2">
         <v>9.0295000000000005</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B119" s="2">
         <v>9.0295000000000005</v>
@@ -1703,9 +1703,17 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9.0295000000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>44980</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B121" s="2">
         <v>9.0305</v>
       </c>
     </row>
@@ -1716,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0717662F-33D0-3646-8F73-43D58A404F79}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1738,71 +1746,71 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>7.3864999999999998</v>
+        <v>7.3810000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
-        <v>7.3870000000000005</v>
+        <v>7.3864999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>7.4</v>
+        <v>7.3870000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>7.3925000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>7.3949999999999996</v>
+        <v>7.3925000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>7.5129999999999999</v>
+        <v>7.3949999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
-        <v>7.5150000000000006</v>
+        <v>7.5129999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>7.4</v>
+        <v>7.5150000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>7.4</v>
@@ -1810,87 +1818,87 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>7.4960000000000004</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>7.4969999999999999</v>
+        <v>7.4960000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>7.5</v>
+        <v>7.4969999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>7.4980000000000002</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
-        <v>7.4990000000000006</v>
+        <v>7.4980000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
-        <v>7.5</v>
+        <v>7.4990000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>7.54</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>7.5430000000000001</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
-        <v>7.5434999999999999</v>
+        <v>7.5430000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
-        <v>7.5444999999999993</v>
+        <v>7.5434999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
         <v>7.5444999999999993</v>
@@ -1898,15 +1906,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>7.5455000000000005</v>
+        <v>7.5444999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>7.5455000000000005</v>
@@ -1914,39 +1922,39 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>7.548</v>
+        <v>7.5455000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
-        <v>7.5489999999999995</v>
+        <v>7.548</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>7.6719999999999997</v>
+        <v>7.5489999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>7.8149999999999995</v>
+        <v>7.6719999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>7.8149999999999995</v>
@@ -1954,23 +1962,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
-        <v>7.8160000000000007</v>
+        <v>7.8149999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>8.1014999999999997</v>
+        <v>7.8160000000000007</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>8.1014999999999997</v>
@@ -1978,7 +1986,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
         <v>8.1014999999999997</v>
@@ -1986,7 +1994,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
         <v>8.1014999999999997</v>
@@ -1994,7 +2002,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
         <v>8.1014999999999997</v>
@@ -2002,15 +2010,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>8.1020000000000003</v>
+        <v>8.1014999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>8.1020000000000003</v>
@@ -2018,15 +2026,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
-        <v>8.1024999999999991</v>
+        <v>8.1020000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>8.1024999999999991</v>
@@ -2034,47 +2042,47 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>7.9180000000000001</v>
+        <v>8.1024999999999991</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>7.9195000000000002</v>
+        <v>7.9180000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>7.9205000000000005</v>
+        <v>7.9195000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>8.1679999999999993</v>
+        <v>7.9205000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
-        <v>8.1684999999999999</v>
+        <v>8.1679999999999993</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
         <v>8.1684999999999999</v>
@@ -2082,7 +2090,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>8.1684999999999999</v>
@@ -2090,7 +2098,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
         <v>8.1684999999999999</v>
@@ -2098,7 +2106,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
         <v>8.1684999999999999</v>
@@ -2106,7 +2114,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>8.1684999999999999</v>
@@ -2114,31 +2122,31 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>8.1690000000000005</v>
+        <v>8.1684999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>8.1694999999999993</v>
+        <v>8.1690000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
-        <v>8.17</v>
+        <v>8.1694999999999993</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
         <v>8.17</v>
@@ -2146,7 +2154,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
         <v>8.17</v>
@@ -2154,7 +2162,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
         <v>8.17</v>
@@ -2162,15 +2170,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>8.1690000000000005</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>8.1690000000000005</v>
@@ -2178,7 +2186,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
         <v>8.1690000000000005</v>
@@ -2186,15 +2194,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>8.17</v>
+        <v>8.1690000000000005</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
         <v>8.17</v>
@@ -2202,7 +2210,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
         <v>8.17</v>
@@ -2210,15 +2218,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
-        <v>8.1705000000000005</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>8.1705000000000005</v>
@@ -2226,7 +2234,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
         <v>8.1705000000000005</v>
@@ -2234,7 +2242,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>8.1705000000000005</v>
@@ -2242,15 +2250,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>8.1720000000000006</v>
+        <v>8.1705000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>8.1720000000000006</v>
@@ -2258,7 +2266,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>8.1720000000000006</v>
@@ -2266,23 +2274,23 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>8.173</v>
+        <v>8.1720000000000006</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
-        <v>8.1735000000000007</v>
+        <v>8.173</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
         <v>8.1735000000000007</v>
@@ -2290,7 +2298,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>8.1735000000000007</v>
@@ -2298,15 +2306,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>8.1745000000000001</v>
+        <v>8.1735000000000007</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
         <v>8.1745000000000001</v>
@@ -2314,119 +2322,119 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>8.1750000000000007</v>
+        <v>8.1745000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>8.1754999999999995</v>
+        <v>8.1750000000000007</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>8.5910000000000011</v>
+        <v>8.1754999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>8.5890000000000004</v>
+        <v>8.5910000000000011</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>8.5865000000000009</v>
+        <v>8.5890000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>8.5835000000000008</v>
+        <v>8.5865000000000009</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
-        <v>8.5829999999999984</v>
+        <v>8.5835000000000008</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>8.5805000000000007</v>
+        <v>8.5829999999999984</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>8.577</v>
+        <v>8.5805000000000007</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
-        <v>8.5754999999999999</v>
+        <v>8.577</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
-        <v>8.5749999999999993</v>
+        <v>8.5754999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>8.7010000000000005</v>
+        <v>8.5749999999999993</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
-        <v>8.6995000000000005</v>
+        <v>8.7010000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
-        <v>8.6989999999999998</v>
+        <v>8.6995000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
         <v>8.6989999999999998</v>
@@ -2434,79 +2442,79 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
-        <v>8.6980000000000004</v>
+        <v>8.6989999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
-        <v>8.6974999999999998</v>
+        <v>8.6980000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
-        <v>8.6965000000000003</v>
+        <v>8.6974999999999998</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
-        <v>8.6959999999999997</v>
+        <v>8.6965000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
-        <v>8.6950000000000003</v>
+        <v>8.6959999999999997</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>8.6379999999999999</v>
+        <v>8.6950000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
-        <v>8.6370000000000005</v>
+        <v>8.6379999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
-        <v>8.6359999999999992</v>
+        <v>8.6370000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
-        <v>8.6355000000000004</v>
+        <v>8.6359999999999992</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
         <v>8.6355000000000004</v>
@@ -2514,63 +2522,63 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>8.6349999999999998</v>
+        <v>8.6355000000000004</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
-        <v>8.6344999999999992</v>
+        <v>8.6349999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>8.6335000000000015</v>
+        <v>8.6344999999999992</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
-        <v>8.6329999999999991</v>
+        <v>8.6335000000000015</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
-        <v>8.6325000000000003</v>
+        <v>8.6329999999999991</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
-        <v>8.6320000000000014</v>
+        <v>8.6325000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
-        <v>8.6319999999999997</v>
+        <v>8.6320000000000014</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
         <v>8.6319999999999997</v>
@@ -2578,15 +2586,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
-        <v>8.6314999999999991</v>
+        <v>8.6319999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
         <v>8.6314999999999991</v>
@@ -2594,7 +2602,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
         <v>8.6314999999999991</v>
@@ -2602,15 +2610,15 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
-        <v>8.6310000000000002</v>
+        <v>8.6314999999999991</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
         <v>8.6310000000000002</v>
@@ -2618,7 +2626,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
         <v>8.6310000000000002</v>
@@ -2626,7 +2634,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
         <v>8.6310000000000002</v>
@@ -2634,7 +2642,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
         <v>8.6310000000000002</v>
@@ -2642,15 +2650,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
-        <v>8.6304999999999996</v>
+        <v>8.6310000000000002</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
         <v>8.6304999999999996</v>
@@ -2658,15 +2666,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
-        <v>8.629999999999999</v>
+        <v>8.6304999999999996</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
         <v>8.629999999999999</v>
@@ -2674,9 +2682,17 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8.629999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>44980</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>8.6295000000000002</v>
       </c>
     </row>
@@ -2687,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2364F97-177D-E54E-86CD-580A4E6C5E44}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2708,23 +2724,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>7.6494999999999997</v>
+        <v>7.649</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
-        <v>7.65</v>
+        <v>7.6494999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
         <v>7.65</v>
@@ -2732,7 +2748,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
         <v>7.65</v>
@@ -2740,23 +2756,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>7.6505000000000001</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>7.8005000000000004</v>
+        <v>7.6505000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
         <v>7.8005000000000004</v>
@@ -2764,15 +2780,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>7.65</v>
+        <v>7.8005000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>7.65</v>
@@ -2780,15 +2796,15 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>7.8004999999999995</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
         <v>7.8004999999999995</v>
@@ -2796,15 +2812,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>7.8</v>
+        <v>7.8004999999999995</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
         <v>7.8</v>
@@ -2812,7 +2828,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
         <v>7.8</v>
@@ -2820,7 +2836,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
         <v>7.8</v>
@@ -2828,23 +2844,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>7.8010000000000002</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>7.8004999999999995</v>
+        <v>7.8010000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
         <v>7.8004999999999995</v>
@@ -2852,7 +2868,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
         <v>7.8004999999999995</v>
@@ -2860,7 +2876,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
         <v>7.8004999999999995</v>
@@ -2868,7 +2884,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
         <v>7.8004999999999995</v>
@@ -2876,7 +2892,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>7.8004999999999995</v>
@@ -2884,15 +2900,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>7.8</v>
+        <v>7.8004999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
         <v>7.8</v>
@@ -2900,23 +2916,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>7.89</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>7.8895</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>7.8895</v>
@@ -2924,7 +2940,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>7.8895</v>
@@ -2932,15 +2948,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>8.0754999999999999</v>
+        <v>7.8895</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>8.0754999999999999</v>
@@ -2948,23 +2964,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
-        <v>8.0749999999999993</v>
+        <v>8.0754999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>8.0745000000000005</v>
+        <v>8.0749999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
         <v>8.0745000000000005</v>
@@ -2972,15 +2988,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>8.0739999999999998</v>
+        <v>8.0745000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>8.0739999999999998</v>
@@ -2988,7 +3004,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>8.0739999999999998</v>
@@ -2996,7 +3012,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>8.0739999999999998</v>
@@ -3004,15 +3020,15 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>8.0510000000000002</v>
+        <v>8.0739999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
         <v>8.0510000000000002</v>
@@ -3020,23 +3036,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>8.0504999999999995</v>
+        <v>8.0510000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>8.3025000000000002</v>
+        <v>8.0504999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
         <v>8.3025000000000002</v>
@@ -3044,7 +3060,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
         <v>8.3025000000000002</v>
@@ -3052,7 +3068,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>8.3025000000000002</v>
@@ -3060,7 +3076,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
         <v>8.3025000000000002</v>
@@ -3068,15 +3084,15 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
-        <v>8.3015000000000008</v>
+        <v>8.3025000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>8.3015000000000008</v>
@@ -3084,7 +3100,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
         <v>8.3015000000000008</v>
@@ -3092,23 +3108,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>8.3010000000000002</v>
+        <v>8.3015000000000008</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
-        <v>8.3004999999999995</v>
+        <v>8.3010000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
         <v>8.3004999999999995</v>
@@ -3116,15 +3132,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
-        <v>8.3000000000000007</v>
+        <v>8.3004999999999995</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
         <v>8.3000000000000007</v>
@@ -3132,15 +3148,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>8.4015000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>8.4015000000000004</v>
@@ -3148,7 +3164,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
         <v>8.4015000000000004</v>
@@ -3156,15 +3172,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>8.400500000000001</v>
+        <v>8.4015000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
         <v>8.400500000000001</v>
@@ -3172,7 +3188,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
         <v>8.400500000000001</v>
@@ -3180,15 +3196,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
-        <v>8.4</v>
+        <v>8.400500000000001</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>8.4</v>
@@ -3196,7 +3212,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
         <v>8.4</v>
@@ -3204,23 +3220,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
-        <v>8.3994999999999997</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>8.4529999999999994</v>
+        <v>8.3994999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>8.4529999999999994</v>
@@ -3228,7 +3244,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>8.4529999999999994</v>
@@ -3236,15 +3252,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>8.4525000000000006</v>
+        <v>8.4529999999999994</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
         <v>8.4525000000000006</v>
@@ -3252,15 +3268,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
-        <v>8.4514999999999993</v>
+        <v>8.4525000000000006</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>8.4514999999999993</v>
@@ -3268,7 +3284,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
         <v>8.4514999999999993</v>
@@ -3276,63 +3292,63 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
-        <v>8.4510000000000005</v>
+        <v>8.4514999999999993</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>8.4499999999999993</v>
+        <v>8.4510000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>8.4489999999999998</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>8.7445000000000004</v>
+        <v>8.4489999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>8.7420000000000009</v>
+        <v>8.7445000000000004</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>8.7390000000000008</v>
+        <v>8.7420000000000009</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>8.7355</v>
+        <v>8.7390000000000008</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
         <v>8.7355</v>
@@ -3340,71 +3356,71 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>8.7330000000000005</v>
+        <v>8.7355</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>8.7279999999999998</v>
+        <v>8.7330000000000005</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
-        <v>8.7265000000000015</v>
+        <v>8.7279999999999998</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
-        <v>8.7260000000000009</v>
+        <v>8.7265000000000015</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>8.9074999999999989</v>
+        <v>8.7260000000000009</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
-        <v>8.9055</v>
+        <v>8.9074999999999989</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
-        <v>8.9045000000000005</v>
+        <v>8.9055</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
-        <v>8.9035000000000011</v>
+        <v>8.9045000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
         <v>8.9035000000000011</v>
@@ -3412,31 +3428,31 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
-        <v>8.902000000000001</v>
+        <v>8.9035000000000011</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
-        <v>8.9009999999999998</v>
+        <v>8.902000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
-        <v>8.9</v>
+        <v>8.9009999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
         <v>8.9</v>
@@ -3444,71 +3460,71 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>9.6260000000000012</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
-        <v>9.6239999999999988</v>
+        <v>9.6260000000000012</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
-        <v>9.6209999999999987</v>
+        <v>9.6239999999999988</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
-        <v>9.620000000000001</v>
+        <v>9.6209999999999987</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
-        <v>9.6185000000000009</v>
+        <v>9.620000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>9.6174999999999997</v>
+        <v>9.6185000000000009</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
-        <v>9.6170000000000009</v>
+        <v>9.6174999999999997</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>9.6120000000000001</v>
+        <v>9.6170000000000009</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
         <v>9.6120000000000001</v>
@@ -3516,31 +3532,31 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
-        <v>9.61</v>
+        <v>9.6120000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
-        <v>9.6095000000000006</v>
+        <v>9.61</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
-        <v>9.6074999999999999</v>
+        <v>9.6095000000000006</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
         <v>9.6074999999999999</v>
@@ -3548,15 +3564,15 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
-        <v>9.6065000000000005</v>
+        <v>9.6074999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
         <v>9.6065000000000005</v>
@@ -3564,15 +3580,15 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
-        <v>9.6050000000000004</v>
+        <v>9.6065000000000005</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
         <v>9.6050000000000004</v>
@@ -3580,7 +3596,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
         <v>9.6050000000000004</v>
@@ -3588,15 +3604,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
-        <v>9.6039999999999992</v>
+        <v>9.6050000000000004</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
         <v>9.6039999999999992</v>
@@ -3604,23 +3620,23 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
-        <v>9.6024999999999991</v>
+        <v>9.6039999999999992</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
-        <v>9.6020000000000003</v>
+        <v>9.6024999999999991</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
         <v>9.6020000000000003</v>
@@ -3628,25 +3644,33 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
-        <v>9.6009999999999991</v>
+        <v>9.6020000000000003</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
-        <v>9.599499999999999</v>
+        <v>9.6009999999999991</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.599499999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>44980</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>9.599499999999999</v>
       </c>
     </row>
@@ -3657,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E38C76-CA67-724A-88A3-71E9148F44F3}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3690,23 +3714,15 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>8.1009999999999991</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
+        <v>8.1005000000000003</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
         <v>8.1009999999999991</v>
@@ -3722,10 +3738,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>8.1</v>
+        <v>8.1009999999999991</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
@@ -3738,10 +3754,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>8.1009999999999991</v>
+        <v>8.1</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="2"/>
@@ -3754,7 +3770,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
         <v>8.1009999999999991</v>
@@ -3770,10 +3786,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>8.1980000000000004</v>
+        <v>8.1009999999999991</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
@@ -3786,7 +3802,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
         <v>8.1980000000000004</v>
@@ -3802,10 +3818,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>8.1</v>
+        <v>8.1980000000000004</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -3818,7 +3834,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>8.1</v>
@@ -3834,10 +3850,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>8.1760000000000002</v>
+        <v>8.1</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
@@ -3850,7 +3866,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
         <v>8.1760000000000002</v>
@@ -3866,10 +3882,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>8.1750000000000007</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
@@ -3882,7 +3898,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
         <v>8.1750000000000007</v>
@@ -3898,7 +3914,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
         <v>8.1750000000000007</v>
@@ -3914,7 +3930,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
         <v>8.1750000000000007</v>
@@ -3930,10 +3946,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>8.1765000000000008</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
@@ -3946,10 +3962,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>8.1760000000000002</v>
+        <v>8.1765000000000008</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="2"/>
@@ -3962,7 +3978,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
         <v>8.1760000000000002</v>
@@ -3978,7 +3994,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
         <v>8.1760000000000002</v>
@@ -3994,7 +4010,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
         <v>8.1760000000000002</v>
@@ -4010,10 +4026,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>8.1754999999999995</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
@@ -4026,7 +4042,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>8.1754999999999995</v>
@@ -4042,10 +4058,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>8.1750000000000007</v>
+        <v>8.1754999999999995</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -4058,7 +4074,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
         <v>8.1750000000000007</v>
@@ -4074,10 +4090,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>8.1950000000000003</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -4090,10 +4106,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>8.1944999999999997</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -4106,7 +4122,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>8.1944999999999997</v>
@@ -4122,7 +4138,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>8.1944999999999997</v>
@@ -4138,10 +4154,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>9.0235000000000003</v>
+        <v>8.1944999999999997</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -4154,7 +4170,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>9.0235000000000003</v>
@@ -4170,10 +4186,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
-        <v>8.67</v>
+        <v>9.0235000000000003</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -4186,10 +4202,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>9.0229999999999997</v>
+        <v>8.67</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2"/>
@@ -4202,10 +4218,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
-        <v>9.0225000000000009</v>
+        <v>9.0229999999999997</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2"/>
@@ -4218,10 +4234,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>9.0210000000000008</v>
+        <v>9.0225000000000009</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -4234,7 +4250,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>9.0210000000000008</v>
@@ -4250,7 +4266,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>9.0210000000000008</v>
@@ -4266,10 +4282,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
-        <v>9.0205000000000002</v>
+        <v>9.0210000000000008</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2"/>
@@ -4282,10 +4298,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>8.9529999999999994</v>
+        <v>9.0205000000000002</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2"/>
@@ -4298,10 +4314,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>8.952</v>
+        <v>8.9529999999999994</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -4314,10 +4330,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>8.9514999999999993</v>
+        <v>8.952</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -4330,10 +4346,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>9.2050000000000001</v>
+        <v>8.9514999999999993</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -4346,7 +4362,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
         <v>9.2050000000000001</v>
@@ -4362,7 +4378,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
         <v>9.2050000000000001</v>
@@ -4378,10 +4394,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
-        <v>9.2044999999999995</v>
+        <v>9.2050000000000001</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -4394,10 +4410,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
-        <v>9.2040000000000006</v>
+        <v>9.2044999999999995</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2"/>
@@ -4410,7 +4426,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
         <v>9.2040000000000006</v>
@@ -4426,7 +4442,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>9.2040000000000006</v>
@@ -4442,10 +4458,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>9.2029999999999994</v>
+        <v>9.2040000000000006</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -4458,7 +4474,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
         <v>9.2029999999999994</v>
@@ -4474,10 +4490,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
-        <v>9.2025000000000006</v>
+        <v>9.2029999999999994</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2"/>
@@ -4490,10 +4506,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
-        <v>9.202</v>
+        <v>9.2025000000000006</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2"/>
@@ -4506,7 +4522,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
         <v>9.202</v>
@@ -4522,10 +4538,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
-        <v>9.2014999999999993</v>
+        <v>9.202</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="2"/>
@@ -4538,10 +4554,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>9.2029999999999994</v>
+        <v>9.2014999999999993</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -4554,10 +4570,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
-        <v>9.2025000000000006</v>
+        <v>9.2029999999999994</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="2"/>
@@ -4570,7 +4586,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
         <v>9.2025000000000006</v>
@@ -4586,10 +4602,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>9.202</v>
+        <v>9.2025000000000006</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -4602,7 +4618,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
         <v>9.202</v>
@@ -4618,10 +4634,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
-        <v>9.2014999999999993</v>
+        <v>9.202</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -4634,10 +4650,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
-        <v>9.2010000000000005</v>
+        <v>9.2014999999999993</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -4650,7 +4666,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>9.2010000000000005</v>
@@ -4666,7 +4682,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
         <v>9.2010000000000005</v>
@@ -4682,7 +4698,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>9.2010000000000005</v>
@@ -4698,10 +4714,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>9.3689999999999998</v>
+        <v>9.2010000000000005</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="2"/>
@@ -4714,7 +4730,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>9.3689999999999998</v>
@@ -4730,7 +4746,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>9.3689999999999998</v>
@@ -4746,10 +4762,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>9.3679999999999986</v>
+        <v>9.3689999999999998</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -4762,7 +4778,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
         <v>9.3679999999999986</v>
@@ -4778,10 +4794,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
-        <v>9.3670000000000009</v>
+        <v>9.3679999999999986</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="2"/>
@@ -4794,7 +4810,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>9.3670000000000009</v>
@@ -4810,10 +4826,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>9.3665000000000003</v>
+        <v>9.3670000000000009</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="2"/>
@@ -4826,7 +4842,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
         <v>9.3665000000000003</v>
@@ -4842,10 +4858,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>9.3655000000000008</v>
+        <v>9.3665000000000003</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="2"/>
@@ -4858,10 +4874,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>9.3650000000000002</v>
+        <v>9.3655000000000008</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="2"/>
@@ -4874,10 +4890,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>9.3635000000000002</v>
+        <v>9.3650000000000002</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="2"/>
@@ -4890,10 +4906,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>9.3620000000000001</v>
+        <v>9.3635000000000002</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="2"/>
@@ -4906,10 +4922,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>9.36</v>
+        <v>9.3620000000000001</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="2"/>
@@ -4922,10 +4938,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>9.3574999999999999</v>
+        <v>9.36</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -4938,7 +4954,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
         <v>9.3574999999999999</v>
@@ -4954,10 +4970,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>9.3554999999999993</v>
+        <v>9.3574999999999999</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="2"/>
@@ -4970,10 +4986,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>9.3520000000000003</v>
+        <v>9.3554999999999993</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="2"/>
@@ -4986,10 +5002,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
-        <v>9.3509999999999991</v>
+        <v>9.3520000000000003</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="2"/>
@@ -5002,7 +5018,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
         <v>9.3509999999999991</v>
@@ -5018,10 +5034,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>9.6805000000000003</v>
+        <v>9.3509999999999991</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="2"/>
@@ -5034,10 +5050,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
-        <v>9.6784999999999997</v>
+        <v>9.6805000000000003</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="2"/>
@@ -5050,10 +5066,10 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
-        <v>9.6780000000000008</v>
+        <v>9.6784999999999997</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="2"/>
@@ -5066,10 +5082,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
-        <v>9.6775000000000002</v>
+        <v>9.6780000000000008</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="2"/>
@@ -5082,7 +5098,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
         <v>9.6775000000000002</v>
@@ -5098,10 +5114,10 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
-        <v>9.6765000000000008</v>
+        <v>9.6775000000000002</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="2"/>
@@ -5114,10 +5130,10 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
-        <v>9.6754999999999995</v>
+        <v>9.6765000000000008</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="2"/>
@@ -5130,10 +5146,10 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
-        <v>9.6750000000000007</v>
+        <v>9.6754999999999995</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="2"/>
@@ -5146,7 +5162,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
         <v>9.6750000000000007</v>
@@ -5162,10 +5178,10 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>10.088999999999999</v>
+        <v>9.6750000000000007</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="2"/>
@@ -5178,10 +5194,10 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
-        <v>10.0885</v>
+        <v>10.088999999999999</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="2"/>
@@ -5194,10 +5210,10 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
-        <v>10.086500000000001</v>
+        <v>10.0885</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="2"/>
@@ -5210,7 +5226,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
         <v>10.086500000000001</v>
@@ -5226,10 +5242,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
-        <v>10.0855</v>
+        <v>10.086500000000001</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="2"/>
@@ -5242,10 +5258,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>10.085000000000001</v>
+        <v>10.0855</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="2"/>
@@ -5258,7 +5274,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
         <v>10.085000000000001</v>
@@ -5274,10 +5290,10 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>10.0825</v>
+        <v>10.085000000000001</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -5290,7 +5306,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
         <v>10.0825</v>
@@ -5306,10 +5322,10 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
-        <v>10.081</v>
+        <v>10.0825</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="2"/>
@@ -5322,7 +5338,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
         <v>10.081</v>
@@ -5338,10 +5354,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
-        <v>10.080500000000001</v>
+        <v>10.081</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="2"/>
@@ -5354,10 +5370,10 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
-        <v>10.08</v>
+        <v>10.080500000000001</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="2"/>
@@ -5370,10 +5386,10 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
-        <v>10.079499999999999</v>
+        <v>10.08</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="2"/>
@@ -5386,7 +5402,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
         <v>10.079499999999999</v>
@@ -5402,10 +5418,10 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
-        <v>10.079000000000001</v>
+        <v>10.079499999999999</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="2"/>
@@ -5418,7 +5434,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
         <v>10.079000000000001</v>
@@ -5434,7 +5450,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
         <v>10.079000000000001</v>
@@ -5450,10 +5466,10 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
-        <v>10.0785</v>
+        <v>10.079000000000001</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="2"/>
@@ -5466,7 +5482,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
         <v>10.0785</v>
@@ -5482,10 +5498,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
-        <v>10.077999999999999</v>
+        <v>10.0785</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="2"/>
@@ -5498,10 +5514,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
-        <v>10.077500000000001</v>
+        <v>10.077999999999999</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="2"/>
@@ -5514,10 +5530,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
-        <v>10.077</v>
+        <v>10.077500000000001</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="2"/>
@@ -5530,7 +5546,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
         <v>10.077</v>
@@ -5546,10 +5562,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
-        <v>10.076499999999999</v>
+        <v>10.077</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="2"/>
@@ -5562,7 +5578,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B119" s="2">
         <v>10.076499999999999</v>
@@ -5577,8 +5593,24 @@
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B120" s="2">
+        <v>10.076499999999999</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="2"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="2"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C121" s="1"/>
+      <c r="D121" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5587,10 +5619,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12099A25-778F-2F46-8A04-BDB468C7D016}">
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5608,15 +5640,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>8.3985000000000003</v>
+        <v>8.3979999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
         <v>8.3985000000000003</v>
@@ -5624,23 +5656,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>8.4</v>
+        <v>8.3985000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>8.3990000000000009</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
         <v>8.3990000000000009</v>
@@ -5648,15 +5680,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>8.4295000000000009</v>
+        <v>8.3990000000000009</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
         <v>8.4295000000000009</v>
@@ -5664,15 +5696,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>8.4</v>
+        <v>8.4295000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>8.4</v>
@@ -5680,39 +5712,39 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>8.5990000000000002</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>8.599499999999999</v>
+        <v>8.5990000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>8.2250000000000014</v>
+        <v>8.599499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>8.6</v>
+        <v>8.2250000000000014</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
         <v>8.6</v>
@@ -5720,7 +5752,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
         <v>8.6</v>
@@ -5728,23 +5760,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>8.5975000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>8.5984999999999996</v>
+        <v>8.5975000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
         <v>8.5984999999999996</v>
@@ -5752,7 +5784,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
         <v>8.5984999999999996</v>
@@ -5760,15 +5792,15 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
-        <v>8.5990000000000002</v>
+        <v>8.5984999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
         <v>8.5990000000000002</v>
@@ -5776,7 +5808,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>8.5990000000000002</v>
@@ -5784,15 +5816,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>8.6</v>
+        <v>8.5990000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
         <v>8.6</v>
@@ -5800,23 +5832,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>8.6419999999999995</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>8.6425000000000001</v>
+        <v>8.6419999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>8.6425000000000001</v>
@@ -5824,7 +5856,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>8.6425000000000001</v>
@@ -5832,15 +5864,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>9.1890000000000001</v>
+        <v>8.6425000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>9.1890000000000001</v>
@@ -5848,23 +5880,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
-        <v>8.7489999999999988</v>
+        <v>9.1890000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>9.1890000000000001</v>
+        <v>8.7489999999999988</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
         <v>9.1890000000000001</v>
@@ -5872,15 +5904,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>9.1900000000000013</v>
+        <v>9.1890000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>9.1900000000000013</v>
@@ -5888,7 +5920,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>9.1900000000000013</v>
@@ -5896,7 +5928,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>9.1900000000000013</v>
@@ -5904,23 +5936,23 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>9.1484999999999985</v>
+        <v>9.1900000000000013</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>9.1490000000000009</v>
+        <v>9.1484999999999985</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
         <v>9.1490000000000009</v>
@@ -5928,15 +5960,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>9.3970000000000002</v>
+        <v>9.1490000000000009</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
         <v>9.3970000000000002</v>
@@ -5944,15 +5976,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
-        <v>9.3979999999999997</v>
+        <v>9.3970000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>9.3979999999999997</v>
@@ -5960,7 +5992,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
         <v>9.3979999999999997</v>
@@ -5968,7 +6000,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
         <v>9.3979999999999997</v>
@@ -5976,7 +6008,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>9.3979999999999997</v>
@@ -5984,7 +6016,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
         <v>9.3979999999999997</v>
@@ -5992,23 +6024,23 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>9.3984999999999985</v>
+        <v>9.3979999999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
-        <v>9.3990000000000009</v>
+        <v>9.3984999999999985</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
         <v>9.3990000000000009</v>
@@ -6016,7 +6048,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
         <v>9.3990000000000009</v>
@@ -6024,23 +6056,23 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
-        <v>9.3994999999999997</v>
+        <v>9.3990000000000009</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>9.3979999999999997</v>
+        <v>9.3994999999999997</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>9.3979999999999997</v>
@@ -6048,23 +6080,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
-        <v>9.3984999999999985</v>
+        <v>9.3979999999999997</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>9.3990000000000009</v>
+        <v>9.3984999999999985</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
         <v>9.3990000000000009</v>
@@ -6072,15 +6104,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
-        <v>9.3994999999999997</v>
+        <v>9.3990000000000009</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
         <v>9.3994999999999997</v>
@@ -6088,7 +6120,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>9.3994999999999997</v>
@@ -6096,15 +6128,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
-        <v>9.4</v>
+        <v>9.3994999999999997</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>9.4</v>
@@ -6112,15 +6144,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>9.6015000000000015</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>9.6015000000000015</v>
@@ -6128,7 +6160,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>9.6015000000000015</v>
@@ -6136,15 +6168,15 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>9.6009999999999991</v>
+        <v>9.6015000000000015</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
         <v>9.6009999999999991</v>
@@ -6152,7 +6184,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
         <v>9.6009999999999991</v>
@@ -6160,7 +6192,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>9.6009999999999991</v>
@@ -6168,15 +6200,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>9.6005000000000003</v>
+        <v>9.6009999999999991</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
         <v>9.6005000000000003</v>
@@ -6184,15 +6216,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>9.6</v>
+        <v>9.6005000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
         <v>9.6</v>
@@ -6200,7 +6232,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
         <v>9.6</v>
@@ -6208,7 +6240,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
         <v>9.6</v>
@@ -6216,15 +6248,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>9.599499999999999</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
         <v>9.599499999999999</v>
@@ -6232,7 +6264,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
         <v>9.599499999999999</v>
@@ -6240,7 +6272,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
         <v>9.599499999999999</v>
@@ -6248,23 +6280,23 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45098</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>9.4</v>
+        <v>9.599499999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="B83" s="2">
-        <v>9.6000000000000014</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B84" s="2">
         <v>9.6000000000000014</v>
@@ -6272,7 +6304,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B85" s="2">
         <v>9.6000000000000014</v>
@@ -6280,23 +6312,23 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B86" s="2">
-        <v>9.9245000000000001</v>
+        <v>9.6000000000000014</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B87" s="2">
-        <v>9.9250000000000007</v>
+        <v>9.9245000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B88" s="2">
         <v>9.9250000000000007</v>
@@ -6304,7 +6336,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B89" s="2">
         <v>9.9250000000000007</v>
@@ -6312,7 +6344,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B90" s="2">
         <v>9.9250000000000007</v>
@@ -6320,7 +6352,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B91" s="2">
         <v>9.9250000000000007</v>
@@ -6328,7 +6360,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B92" s="2">
         <v>9.9250000000000007</v>
@@ -6336,7 +6368,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B93" s="2">
         <v>9.9250000000000007</v>
@@ -6344,7 +6376,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B94" s="2">
         <v>9.9250000000000007</v>
@@ -6352,15 +6384,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B95" s="2">
-        <v>10.005500000000001</v>
+        <v>9.9250000000000007</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B96" s="2">
         <v>10.005500000000001</v>
@@ -6368,15 +6400,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B97" s="2">
-        <v>10.006</v>
+        <v>10.005500000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B98" s="2">
         <v>10.006</v>
@@ -6384,7 +6416,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B99" s="2">
         <v>10.006</v>
@@ -6392,15 +6424,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B100" s="2">
-        <v>10.006499999999999</v>
+        <v>10.006</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B101" s="2">
         <v>10.006499999999999</v>
@@ -6408,31 +6440,31 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B102" s="2">
-        <v>10.007000000000001</v>
+        <v>10.006499999999999</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B103" s="2">
-        <v>10.0075</v>
+        <v>10.007000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B104" s="2">
-        <v>10.007999999999999</v>
+        <v>10.0075</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B105" s="2">
         <v>10.007999999999999</v>
@@ -6440,7 +6472,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B106" s="2">
         <v>10.007999999999999</v>
@@ -6448,7 +6480,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B107" s="2">
         <v>10.007999999999999</v>
@@ -6456,15 +6488,15 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B108" s="2">
-        <v>10.0085</v>
+        <v>10.007999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B109" s="2">
         <v>10.0085</v>
@@ -6472,7 +6504,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B110" s="2">
         <v>10.0085</v>
@@ -6480,7 +6512,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B111" s="2">
         <v>10.0085</v>
@@ -6488,15 +6520,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B112" s="2">
-        <v>10.007999999999999</v>
+        <v>10.0085</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B113" s="2">
         <v>10.007999999999999</v>
@@ -6504,7 +6536,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B114" s="2">
         <v>10.007999999999999</v>
@@ -6512,15 +6544,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B115" s="2">
-        <v>10.0075</v>
+        <v>10.007999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B116" s="2">
         <v>10.0075</v>
@@ -6528,7 +6560,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B117" s="2">
         <v>10.0075</v>
@@ -6536,7 +6568,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B118" s="2">
         <v>10.0075</v>
@@ -6544,17 +6576,25 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B119" s="2">
-        <v>10.007</v>
+        <v>10.0075</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B120" s="2">
+        <v>10.007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>44980</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B121" s="2">
         <v>10.007</v>
       </c>
     </row>
@@ -6565,10 +6605,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54310510-C5AD-2740-9EEC-8E6405A9B2FD}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6589,17 +6629,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>7.9939999999999998</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2"/>
+        <v>7.9915000000000003</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
         <v>7.9939999999999998</v>
@@ -6609,67 +6647,67 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>8</v>
+        <v>7.9939999999999998</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>7.9964999999999993</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>7.9975000000000005</v>
+        <v>7.9964999999999993</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>8.0790000000000006</v>
+        <v>7.9975000000000005</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
-        <v>8.08</v>
+        <v>8.0790000000000006</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -6679,57 +6717,57 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>8.1234999999999999</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>8.1239999999999988</v>
+        <v>8.1234999999999999</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>8.125</v>
+        <v>8.1239999999999988</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>8.1239999999999988</v>
+        <v>8.125</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
-        <v>8.125</v>
+        <v>8.1239999999999988</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
         <v>8.125</v>
@@ -6739,27 +6777,27 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0705000000000009</v>
+        <v>8.125</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>8.0719999999999992</v>
+        <v>8.0705000000000009</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
         <v>8.0719999999999992</v>
@@ -6769,7 +6807,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
         <v>8.0719999999999992</v>
@@ -6779,27 +6817,27 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
-        <v>8.0724999999999998</v>
+        <v>8.0719999999999992</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>8.0730000000000004</v>
+        <v>8.0724999999999998</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>8.0730000000000004</v>
@@ -6809,17 +6847,17 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>8.0739999999999998</v>
+        <v>8.0730000000000004</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
         <v>8.0739999999999998</v>
@@ -6829,27 +6867,27 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>8.0875000000000004</v>
+        <v>8.0739999999999998</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>8.0884999999999998</v>
+        <v>8.0875000000000004</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>8.0884999999999998</v>
@@ -6859,7 +6897,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>8.0884999999999998</v>
@@ -6869,17 +6907,17 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>8.7355</v>
+        <v>8.0884999999999998</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>8.7355</v>
@@ -6889,57 +6927,57 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
-        <v>8.4085000000000001</v>
+        <v>8.7355</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>8.7360000000000007</v>
+        <v>8.4085000000000001</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
-        <v>8.7364999999999995</v>
+        <v>8.7360000000000007</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>8.7370000000000001</v>
+        <v>8.7364999999999995</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
-        <v>8.7375000000000007</v>
+        <v>8.7370000000000001</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>8.7375000000000007</v>
@@ -6949,7 +6987,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>8.7375000000000007</v>
@@ -6959,47 +6997,47 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>8.6490000000000009</v>
+        <v>8.7375000000000007</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>8.6494999999999997</v>
+        <v>8.6490000000000009</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>8.6499999999999986</v>
+        <v>8.6494999999999997</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>8.8975000000000009</v>
+        <v>8.6499999999999986</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
         <v>8.8975000000000009</v>
@@ -7009,17 +7047,17 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
-        <v>8.8979999999999997</v>
+        <v>8.8975000000000009</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>8.8979999999999997</v>
@@ -7029,7 +7067,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
         <v>8.8979999999999997</v>
@@ -7039,7 +7077,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
         <v>8.8979999999999997</v>
@@ -7049,7 +7087,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>8.8979999999999997</v>
@@ -7059,27 +7097,27 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>8.8985000000000003</v>
+        <v>8.8979999999999997</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>8.8990000000000009</v>
+        <v>8.8985000000000003</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
         <v>8.8990000000000009</v>
@@ -7089,17 +7127,17 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
-        <v>8.8994999999999997</v>
+        <v>8.8990000000000009</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
         <v>8.8994999999999997</v>
@@ -7109,7 +7147,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
         <v>8.8994999999999997</v>
@@ -7119,17 +7157,17 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>8.8985000000000003</v>
+        <v>8.8994999999999997</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>8.8985000000000003</v>
@@ -7139,7 +7177,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
         <v>8.8985000000000003</v>
@@ -7149,17 +7187,17 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>8.8994999999999997</v>
+        <v>8.8985000000000003</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
         <v>8.8994999999999997</v>
@@ -7169,7 +7207,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
         <v>8.8994999999999997</v>
@@ -7179,27 +7217,27 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
-        <v>8.8999999999999986</v>
+        <v>8.8994999999999997</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
-        <v>8.900500000000001</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
         <v>8.900500000000001</v>
@@ -7209,7 +7247,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>8.900500000000001</v>
@@ -7219,17 +7257,17 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>9.0715000000000003</v>
+        <v>8.900500000000001</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>9.0715000000000003</v>
@@ -7239,7 +7277,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
         <v>9.0715000000000003</v>
@@ -7249,17 +7287,17 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>9.0724999999999998</v>
+        <v>9.0715000000000003</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
         <v>9.0724999999999998</v>
@@ -7269,7 +7307,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
         <v>9.0724999999999998</v>
@@ -7279,17 +7317,17 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
-        <v>9.0730000000000004</v>
+        <v>9.0724999999999998</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
         <v>9.0730000000000004</v>
@@ -7299,27 +7337,27 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
-        <v>9.0734999999999992</v>
+        <v>9.0730000000000004</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>9.0739999999999998</v>
+        <v>9.0734999999999992</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
         <v>9.0739999999999998</v>
@@ -7329,17 +7367,17 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>9.0749999999999993</v>
+        <v>9.0739999999999998</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
         <v>9.0749999999999993</v>
@@ -7349,17 +7387,17 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>9.0745000000000005</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
         <v>9.0745000000000005</v>
@@ -7369,7 +7407,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
         <v>9.0745000000000005</v>
@@ -7379,7 +7417,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
         <v>9.0745000000000005</v>
@@ -7389,17 +7427,17 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>9.0749999999999993</v>
+        <v>9.0745000000000005</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
         <v>9.0749999999999993</v>
@@ -7409,7 +7447,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
         <v>9.0749999999999993</v>
@@ -7419,17 +7457,17 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>9.5504999999999995</v>
+        <v>9.0749999999999993</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
         <v>9.5504999999999995</v>
@@ -7439,7 +7477,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
         <v>9.5504999999999995</v>
@@ -7449,7 +7487,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
         <v>9.5504999999999995</v>
@@ -7459,17 +7497,17 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
-        <v>9.5500000000000007</v>
+        <v>9.5504999999999995</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
         <v>9.5500000000000007</v>
@@ -7479,7 +7517,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
         <v>9.5500000000000007</v>
@@ -7489,7 +7527,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
         <v>9.5500000000000007</v>
@@ -7499,7 +7537,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
         <v>9.5500000000000007</v>
@@ -7509,17 +7547,17 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>9.4465000000000003</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
         <v>9.4465000000000003</v>
@@ -7529,7 +7567,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
         <v>9.4465000000000003</v>
@@ -7539,7 +7577,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
         <v>9.4465000000000003</v>
@@ -7549,7 +7587,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
         <v>9.4465000000000003</v>
@@ -7559,17 +7597,17 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>9.4469999999999992</v>
+        <v>9.4465000000000003</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
         <v>9.4469999999999992</v>
@@ -7579,17 +7617,17 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>9.4474999999999998</v>
+        <v>9.4469999999999992</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
         <v>9.4474999999999998</v>
@@ -7599,7 +7637,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
         <v>9.4474999999999998</v>
@@ -7609,17 +7647,17 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
-        <v>9.4480000000000004</v>
+        <v>9.4474999999999998</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
         <v>9.4480000000000004</v>
@@ -7629,7 +7667,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
         <v>9.4480000000000004</v>
@@ -7639,7 +7677,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
         <v>9.4480000000000004</v>
@@ -7649,17 +7687,17 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
-        <v>9.4484999999999992</v>
+        <v>9.4480000000000004</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
         <v>9.4484999999999992</v>
@@ -7669,7 +7707,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
         <v>9.4484999999999992</v>
@@ -7679,7 +7717,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
         <v>9.4484999999999992</v>
@@ -7689,7 +7727,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
         <v>9.4484999999999992</v>
@@ -7699,7 +7737,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
         <v>9.4484999999999992</v>
@@ -7709,17 +7747,17 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
-        <v>9.4489999999999998</v>
+        <v>9.4484999999999992</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
         <v>9.4489999999999998</v>
@@ -7729,7 +7767,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
         <v>9.4489999999999998</v>
@@ -7739,7 +7777,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
         <v>9.4489999999999998</v>
@@ -7749,23 +7787,33 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
-        <v>9.4495000000000005</v>
+        <v>9.4489999999999998</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B119" s="2">
         <v>9.4495000000000005</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9.4495000000000005</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7774,10 +7822,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E539B76-3257-6146-A1AE-AFDEFC23956D}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7795,15 +7843,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>7.3949999999999996</v>
+        <v>7.3934999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
         <v>7.3949999999999996</v>
@@ -7811,55 +7859,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>7.2750000000000004</v>
+        <v>7.3949999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>7.3970000000000002</v>
+        <v>7.2750000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>7.3979999999999997</v>
+        <v>7.3970000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>7.51</v>
+        <v>7.3979999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
-        <v>7.5105000000000004</v>
+        <v>7.51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>7.4</v>
+        <v>7.5105000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
         <v>7.4</v>
@@ -7867,47 +7915,47 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>7.548</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>7.5485000000000007</v>
+        <v>7.548</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>7.55</v>
+        <v>7.5485000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>7.5489999999999995</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
-        <v>7.55</v>
+        <v>7.5489999999999995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
         <v>7.55</v>
@@ -7915,23 +7963,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>7.5444999999999993</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>7.5465</v>
+        <v>7.5444999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
         <v>7.5465</v>
@@ -7939,7 +7987,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
         <v>7.5465</v>
@@ -7947,7 +7995,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
         <v>7.5465</v>
@@ -7955,15 +8003,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>7.5474999999999994</v>
+        <v>7.5465</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
         <v>7.5474999999999994</v>
@@ -7971,15 +8019,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>7.5489999999999995</v>
+        <v>7.5474999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
         <v>7.5489999999999995</v>
@@ -7987,23 +8035,23 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>7.6440000000000001</v>
+        <v>7.5489999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>7.7705000000000002</v>
+        <v>7.6440000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
         <v>7.7705000000000002</v>
@@ -8011,7 +8059,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>7.7705000000000002</v>
@@ -8019,15 +8067,15 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>8.0224999999999991</v>
+        <v>7.7705000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
         <v>8.0224999999999991</v>
@@ -8035,7 +8083,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
         <v>8.0224999999999991</v>
@@ -8043,7 +8091,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
         <v>8.0224999999999991</v>
@@ -8051,23 +8099,23 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
-        <v>8.0229999999999997</v>
+        <v>8.0224999999999991</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>8.0225000000000009</v>
+        <v>8.0229999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>8.0225000000000009</v>
@@ -8075,7 +8123,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
         <v>8.0225000000000009</v>
@@ -8083,7 +8131,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>8.0225000000000009</v>
@@ -8091,39 +8139,39 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>7.899</v>
+        <v>8.0225000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>7.8994999999999997</v>
+        <v>7.899</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>7.9</v>
+        <v>7.8994999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>8.1529999999999987</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
         <v>8.1529999999999987</v>
@@ -8131,7 +8179,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
         <v>8.1529999999999987</v>
@@ -8139,7 +8187,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
         <v>8.1529999999999987</v>
@@ -8147,7 +8195,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
         <v>8.1529999999999987</v>
@@ -8155,7 +8203,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
         <v>8.1529999999999987</v>
@@ -8163,7 +8211,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>8.1529999999999987</v>
@@ -8171,23 +8219,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>8.1524999999999999</v>
+        <v>8.1529999999999987</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>8.1515000000000004</v>
+        <v>8.1524999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
         <v>8.1515000000000004</v>
@@ -8195,7 +8243,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
         <v>8.1515000000000004</v>
@@ -8203,71 +8251,71 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
-        <v>8.150500000000001</v>
+        <v>8.1515000000000004</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
-        <v>8.15</v>
+        <v>8.150500000000001</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>8.2044999999999995</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
-        <v>8.2040000000000006</v>
+        <v>8.2044999999999995</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
-        <v>8.2035</v>
+        <v>8.2040000000000006</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>8.2025000000000006</v>
+        <v>8.2035</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
-        <v>8.2014999999999993</v>
+        <v>8.2025000000000006</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
-        <v>8.2010000000000005</v>
+        <v>8.2014999999999993</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
         <v>8.2010000000000005</v>
@@ -8275,7 +8323,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>8.2010000000000005</v>
@@ -8283,15 +8331,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.2010000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>8.1999999999999993</v>
@@ -8299,15 +8347,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>8.6550000000000011</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>8.6550000000000011</v>
@@ -8315,39 +8363,39 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
-        <v>8.6539999999999999</v>
+        <v>8.6550000000000011</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>8.6515000000000004</v>
+        <v>8.6539999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
-        <v>8.650500000000001</v>
+        <v>8.6515000000000004</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
-        <v>8.6494999999999997</v>
+        <v>8.650500000000001</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>8.6494999999999997</v>
@@ -8355,15 +8403,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>8.6479999999999997</v>
+        <v>8.6494999999999997</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
         <v>8.6479999999999997</v>
@@ -8371,111 +8419,111 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>8.6470000000000002</v>
+        <v>8.6479999999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>8.6454999999999984</v>
+        <v>8.6470000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>8.6445000000000007</v>
+        <v>8.6454999999999984</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>8.6419999999999995</v>
+        <v>8.6445000000000007</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>8.6385000000000005</v>
+        <v>8.6419999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>8.6359999999999992</v>
+        <v>8.6385000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
-        <v>8.6344999999999992</v>
+        <v>8.6359999999999992</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>8.6325000000000003</v>
+        <v>8.6344999999999992</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>8.6275000000000013</v>
+        <v>8.6325000000000003</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
-        <v>8.6259999999999994</v>
+        <v>8.6275000000000013</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
-        <v>8.625</v>
+        <v>8.6259999999999994</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>8.7115000000000009</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
-        <v>8.7100000000000009</v>
+        <v>8.7115000000000009</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
         <v>8.7100000000000009</v>
@@ -8483,257 +8531,265 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
-        <v>8.7089999999999996</v>
+        <v>8.7100000000000009</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
-        <v>8.7085000000000008</v>
+        <v>8.7089999999999996</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
-        <v>8.7074999999999996</v>
+        <v>8.7085000000000008</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
-        <v>8.7065000000000001</v>
+        <v>8.7074999999999996</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
-        <v>8.7059999999999995</v>
+        <v>8.7065000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
-        <v>8.7050000000000001</v>
+        <v>8.7059999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>10.0045</v>
+        <v>8.7050000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
-        <v>10</v>
+        <v>10.0045</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
-        <v>9.9975000000000005</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
-        <v>9.9935000000000009</v>
+        <v>9.9975000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
-        <v>9.9924999999999997</v>
+        <v>9.9935000000000009</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>9.9905000000000008</v>
+        <v>9.9924999999999997</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
-        <v>9.9864999999999995</v>
+        <v>9.9905000000000008</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>9.9770000000000003</v>
+        <v>9.9864999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
-        <v>9.9740000000000002</v>
+        <v>9.9770000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
-        <v>9.9714999999999989</v>
+        <v>9.9740000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
-        <v>9.9690000000000012</v>
+        <v>9.9714999999999989</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
-        <v>9.9660000000000011</v>
+        <v>9.9690000000000012</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
-        <v>9.9649999999999999</v>
+        <v>9.9660000000000011</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
-        <v>9.9625000000000004</v>
+        <v>9.9649999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
-        <v>9.9615000000000009</v>
+        <v>9.9625000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
-        <v>9.9604999999999997</v>
+        <v>9.9615000000000009</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
-        <v>9.9595000000000002</v>
+        <v>9.9604999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
-        <v>9.9585000000000008</v>
+        <v>9.9595000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
-        <v>9.9565000000000001</v>
+        <v>9.9585000000000008</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
-        <v>9.9555000000000007</v>
+        <v>9.9565000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
-        <v>9.9535</v>
+        <v>9.9555000000000007</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
-        <v>9.9525000000000006</v>
+        <v>9.9535</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
-        <v>9.9504999999999999</v>
+        <v>9.9525000000000006</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
-        <v>9.9495000000000005</v>
+        <v>9.9504999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
-        <v>9.9459999999999997</v>
+        <v>9.9495000000000005</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.9459999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>44980</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>9.942499999999999</v>
       </c>
     </row>
@@ -8744,10 +8800,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D2AAA-EC24-C146-A4A8-A3A53F332E54}">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8765,223 +8821,223 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" s="2">
-        <v>6.1515000000000004</v>
+        <v>6.1219999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" s="2">
-        <v>6.1549999999999994</v>
+        <v>6.1515000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45348</v>
+        <v>45355</v>
       </c>
       <c r="B4" s="2">
-        <v>6.2249999999999996</v>
+        <v>6.1549999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B5" s="2">
-        <v>6.1840000000000002</v>
+        <v>6.2249999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B6" s="2">
-        <v>6.1970000000000001</v>
+        <v>6.1840000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B7" s="2">
-        <v>6.5500000000000007</v>
+        <v>6.1970000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B8" s="2">
-        <v>6.5570000000000004</v>
+        <v>6.5500000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B9" s="2">
-        <v>6.2219999999999995</v>
+        <v>6.5570000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B10" s="2">
-        <v>6.2249999999999996</v>
+        <v>6.2219999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B11" s="2">
-        <v>6.2650000000000006</v>
+        <v>6.2249999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45330</v>
+        <v>45331</v>
       </c>
       <c r="B12" s="2">
-        <v>6.2735000000000003</v>
+        <v>6.2650000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B13" s="2">
-        <v>6.3000000000000007</v>
+        <v>6.2735000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B14" s="2">
-        <v>6.2854999999999999</v>
+        <v>6.3000000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45323</v>
+        <v>45324</v>
       </c>
       <c r="B15" s="2">
-        <v>6.2944999999999993</v>
+        <v>6.2854999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45322</v>
+        <v>45323</v>
       </c>
       <c r="B16" s="2">
-        <v>6.2970000000000006</v>
+        <v>6.2944999999999993</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B17" s="2">
-        <v>7.1344999999999992</v>
+        <v>6.2970000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45309</v>
+        <v>45317</v>
       </c>
       <c r="B18" s="2">
-        <v>7.1479999999999997</v>
+        <v>7.1344999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B19" s="2">
-        <v>7.1505000000000001</v>
+        <v>7.1479999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>45306</v>
+        <v>45307</v>
       </c>
       <c r="B20" s="2">
-        <v>7.1520000000000001</v>
+        <v>7.1505000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B21" s="2">
-        <v>7.1530000000000005</v>
+        <v>7.1520000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>45302</v>
+        <v>45303</v>
       </c>
       <c r="B22" s="2">
-        <v>7.157</v>
+        <v>7.1530000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="B23" s="2">
-        <v>7.1585000000000001</v>
+        <v>7.157</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>45293</v>
+        <v>45301</v>
       </c>
       <c r="B24" s="2">
-        <v>7.1684999999999999</v>
+        <v>7.1585000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B25" s="2">
-        <v>7.17</v>
+        <v>7.1684999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>45287</v>
+        <v>45288</v>
       </c>
       <c r="B26" s="2">
-        <v>7.7480000000000002</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B27" s="2">
-        <v>7.7489999999999997</v>
+        <v>7.7480000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>45280</v>
+        <v>45281</v>
       </c>
       <c r="B28" s="2">
-        <v>7.75</v>
+        <v>7.7489999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>45279</v>
+        <v>45280</v>
       </c>
       <c r="B29" s="2">
         <v>7.75</v>
@@ -8989,23 +9045,23 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B30" s="2">
-        <v>7.7489999999999997</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>45273</v>
+        <v>45274</v>
       </c>
       <c r="B31" s="2">
-        <v>7.7480000000000002</v>
+        <v>7.7489999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>45272</v>
+        <v>45273</v>
       </c>
       <c r="B32" s="2">
         <v>7.7480000000000002</v>
@@ -9013,31 +9069,31 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B33" s="2">
-        <v>7.3964999999999996</v>
+        <v>7.7480000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B34" s="2">
-        <v>7.7469999999999999</v>
+        <v>7.3964999999999996</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B35" s="2">
-        <v>7.7450000000000001</v>
+        <v>7.7469999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B36" s="2">
         <v>7.7450000000000001</v>
@@ -9045,15 +9101,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B37" s="2">
-        <v>7.7439999999999998</v>
+        <v>7.7450000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B38" s="2">
         <v>7.7439999999999998</v>
@@ -9061,79 +9117,79 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B39" s="2">
-        <v>7.2675000000000001</v>
+        <v>7.7439999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B40" s="2">
-        <v>7.2720000000000002</v>
+        <v>7.2675000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B41" s="2">
-        <v>7.2744999999999997</v>
+        <v>7.2720000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="2">
-        <v>7.9209999999999994</v>
+        <v>7.2744999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B43" s="2">
-        <v>7.9205000000000005</v>
+        <v>7.9209999999999994</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B44" s="2">
-        <v>7.9194999999999993</v>
+        <v>7.9205000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B45" s="2">
-        <v>7.9190000000000005</v>
+        <v>7.9194999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B46" s="2">
-        <v>7.9184999999999999</v>
+        <v>7.9190000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="2">
-        <v>7.9180000000000001</v>
+        <v>7.9184999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B48" s="2">
         <v>7.9180000000000001</v>
@@ -9141,23 +9197,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>45219</v>
+        <v>45226</v>
       </c>
       <c r="B49" s="2">
-        <v>7.9154999999999998</v>
+        <v>7.9180000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B50" s="2">
-        <v>7.9139999999999997</v>
+        <v>7.9154999999999998</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B51" s="2">
         <v>7.9139999999999997</v>
@@ -9165,39 +9221,39 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B52" s="2">
-        <v>7.9135000000000009</v>
+        <v>7.9139999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B53" s="2">
-        <v>7.9119999999999999</v>
+        <v>7.9135000000000009</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B54" s="2">
-        <v>7.9115000000000002</v>
+        <v>7.9119999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B55" s="2">
-        <v>7.9150000000000009</v>
+        <v>7.9115000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B56" s="2">
         <v>7.9150000000000009</v>
@@ -9205,47 +9261,47 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B57" s="2">
-        <v>7.9139999999999997</v>
+        <v>7.9150000000000009</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>45197</v>
+        <v>45204</v>
       </c>
       <c r="B58" s="2">
-        <v>7.9130000000000003</v>
+        <v>7.9139999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B59" s="2">
-        <v>7.9119999999999999</v>
+        <v>7.9130000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B60" s="2">
-        <v>7.9115000000000002</v>
+        <v>7.9119999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B61" s="2">
-        <v>7.9110000000000005</v>
+        <v>7.9115000000000002</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B62" s="2">
         <v>7.9110000000000005</v>
@@ -9253,15 +9309,15 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B63" s="2">
-        <v>7.91</v>
+        <v>7.9110000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="B64" s="2">
         <v>7.91</v>
@@ -9269,15 +9325,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>45181</v>
+        <v>45189</v>
       </c>
       <c r="B65" s="2">
-        <v>7.9079999999999995</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B66" s="2">
         <v>7.9079999999999995</v>
@@ -9285,39 +9341,39 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B67" s="2">
-        <v>7.9075000000000006</v>
+        <v>7.9079999999999995</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>45170</v>
+        <v>45177</v>
       </c>
       <c r="B68" s="2">
-        <v>7.9064999999999994</v>
+        <v>7.9075000000000006</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B69" s="2">
-        <v>7.9060000000000006</v>
+        <v>7.9064999999999994</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B70" s="2">
-        <v>7.9055</v>
+        <v>7.9060000000000006</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B71" s="2">
         <v>7.9055</v>
@@ -9325,15 +9381,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B72" s="2">
-        <v>7.9049999999999994</v>
+        <v>7.9055</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B73" s="2">
         <v>7.9049999999999994</v>
@@ -9341,369 +9397,377 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B74" s="2">
-        <v>7.9045000000000005</v>
+        <v>7.9049999999999994</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B75" s="2">
-        <v>7.9039999999999999</v>
+        <v>7.9045000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>45149</v>
+        <v>45155</v>
       </c>
       <c r="B76" s="2">
-        <v>8.6965000000000003</v>
+        <v>7.9039999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>45142</v>
+        <v>45149</v>
       </c>
       <c r="B77" s="2">
-        <v>8.6880000000000006</v>
+        <v>8.6965000000000003</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>45133</v>
+        <v>45142</v>
       </c>
       <c r="B78" s="2">
-        <v>8.6769999999999996</v>
+        <v>8.6880000000000006</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>45121</v>
+        <v>45133</v>
       </c>
       <c r="B79" s="2">
-        <v>8.6660000000000004</v>
+        <v>8.6769999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B80" s="2">
-        <v>8.6630000000000003</v>
+        <v>8.6660000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>45112</v>
+        <v>45120</v>
       </c>
       <c r="B81" s="2">
-        <v>8.6550000000000011</v>
+        <v>8.6630000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>45093</v>
+        <v>45112</v>
       </c>
       <c r="B82" s="2">
-        <v>8.6385000000000005</v>
+        <v>8.6550000000000011</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="B83" s="2">
-        <v>8.6305000000000014</v>
+        <v>8.6385000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B84" s="2">
-        <v>8.625</v>
+        <v>8.6305000000000014</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B85" s="2">
-        <v>8.713000000000001</v>
+        <v>8.625</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>45077</v>
+        <v>45084</v>
       </c>
       <c r="B86" s="2">
-        <v>8.7029999999999994</v>
+        <v>8.713000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B87" s="2">
-        <v>8.702</v>
+        <v>8.7029999999999994</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B88" s="2">
-        <v>8.7004999999999999</v>
+        <v>8.702</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B89" s="2">
-        <v>8.6965000000000003</v>
+        <v>8.7004999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>45065</v>
+        <v>45071</v>
       </c>
       <c r="B90" s="2">
-        <v>8.6915000000000013</v>
+        <v>8.6965000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>45062</v>
+        <v>45065</v>
       </c>
       <c r="B91" s="2">
-        <v>8.6844999999999999</v>
+        <v>8.6915000000000013</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B92" s="2">
-        <v>8.6835000000000004</v>
+        <v>8.6844999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B93" s="2">
-        <v>8.6780000000000008</v>
+        <v>8.6835000000000004</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>45049</v>
+        <v>45057</v>
       </c>
       <c r="B94" s="2">
-        <v>9.2650000000000006</v>
+        <v>8.6780000000000008</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>45043</v>
+        <v>45049</v>
       </c>
       <c r="B95" s="2">
-        <v>9.2530000000000001</v>
+        <v>9.2650000000000006</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>45037</v>
+        <v>45043</v>
       </c>
       <c r="B96" s="2">
-        <v>9.2454999999999998</v>
+        <v>9.2530000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>45035</v>
+        <v>45037</v>
       </c>
       <c r="B97" s="2">
-        <v>9.2379999999999995</v>
+        <v>9.2454999999999998</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B98" s="2">
-        <v>9.2360000000000007</v>
+        <v>9.2379999999999995</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>45030</v>
+        <v>45034</v>
       </c>
       <c r="B99" s="2">
-        <v>9.2324999999999999</v>
+        <v>9.2360000000000007</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45028</v>
+        <v>45030</v>
       </c>
       <c r="B100" s="2">
-        <v>9.2255000000000003</v>
+        <v>9.2324999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45016</v>
+        <v>45028</v>
       </c>
       <c r="B101" s="2">
-        <v>9.2074999999999996</v>
+        <v>9.2255000000000003</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B102" s="2">
-        <v>9.2029999999999994</v>
+        <v>9.2074999999999996</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45009</v>
+        <v>45015</v>
       </c>
       <c r="B103" s="2">
-        <v>9.1974999999999998</v>
+        <v>9.2029999999999994</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B104" s="2">
-        <v>9.192499999999999</v>
+        <v>9.1974999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45005</v>
+        <v>45008</v>
       </c>
       <c r="B105" s="2">
-        <v>9.1875</v>
+        <v>9.192499999999999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B106" s="2">
-        <v>9.1859999999999999</v>
+        <v>9.1875</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B107" s="2">
-        <v>9.1810000000000009</v>
+        <v>9.1859999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B108" s="2">
-        <v>9.1795000000000009</v>
+        <v>9.1810000000000009</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B109" s="2">
-        <v>9.1780000000000008</v>
+        <v>9.1795000000000009</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B110" s="2">
-        <v>9.1765000000000008</v>
+        <v>9.1780000000000008</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B111" s="2">
-        <v>9.1750000000000007</v>
+        <v>9.1765000000000008</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B112" s="2">
-        <v>9.17</v>
+        <v>9.1750000000000007</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B113" s="2">
-        <v>9.1684999999999999</v>
+        <v>9.17</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B114" s="2">
-        <v>9.1649999999999991</v>
+        <v>9.1684999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B115" s="2">
-        <v>9.1634999999999991</v>
+        <v>9.1649999999999991</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B116" s="2">
-        <v>9.1589999999999989</v>
+        <v>9.1634999999999991</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B117" s="2">
-        <v>9.1575000000000006</v>
+        <v>9.1589999999999989</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="B118" s="2">
-        <v>9.152000000000001</v>
+        <v>9.1575000000000006</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.152000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>44980</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>9.1460000000000008</v>
       </c>
     </row>

--- a/PYG_local_bonds.xlsx
+++ b/PYG_local_bonds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aszaran/Downloads/Yield curve models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A58944-5947-4D42-9CEB-3694CFD6B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E5631-8461-FE49-BD40-87DBF85C4209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vencimientos" sheetId="2" r:id="rId1"/>
@@ -739,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +759,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>7.5815000000000001</v>
@@ -1727,7 +1727,7 @@
   <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>7.3810000000000002</v>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>7.649</v>
@@ -3684,7 +3684,7 @@
   <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>8.1005000000000003</v>
@@ -5622,7 +5622,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>8.3979999999999997</v>
@@ -6608,7 +6608,7 @@
   <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>7.9915000000000003</v>
@@ -7825,7 +7825,7 @@
   <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>7.3934999999999995</v>
@@ -8802,8 +8802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D2AAA-EC24-C146-A4A8-A3A53F332E54}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8821,7 +8821,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45357</v>
+        <v>45365</v>
       </c>
       <c r="B2" s="2">
         <v>6.1219999999999999</v>

--- a/PYG_local_bonds.xlsx
+++ b/PYG_local_bonds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aszaran/Downloads/Yield curve models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160E5631-8461-FE49-BD40-87DBF85C4209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1465AE23-46ED-DD4A-8EEE-97F93F99B2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="760" windowWidth="25800" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="760" windowWidth="25800" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vencimientos" sheetId="2" r:id="rId1"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84119E1-2545-724C-8F27-180EDE80EF17}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -668,66 +668,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8802,7 +8802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665D2AAA-EC24-C146-A4A8-A3A53F332E54}">
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
